--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4290743333333333</v>
+        <v>0.060112</v>
       </c>
       <c r="H2">
-        <v>1.287223</v>
+        <v>0.180336</v>
       </c>
       <c r="I2">
-        <v>0.1093614795344676</v>
+        <v>0.02822008145728641</v>
       </c>
       <c r="J2">
-        <v>0.1093614795344676</v>
+        <v>0.02822008145728641</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N2">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O2">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P2">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q2">
-        <v>3.778815032282888</v>
+        <v>0.096142651904</v>
       </c>
       <c r="R2">
-        <v>34.00933529054599</v>
+        <v>0.8652838671359999</v>
       </c>
       <c r="S2">
-        <v>0.01895976127648808</v>
+        <v>0.001115533132284298</v>
       </c>
       <c r="T2">
-        <v>0.01895976127648808</v>
+        <v>0.001115533132284298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4290743333333333</v>
+        <v>0.060112</v>
       </c>
       <c r="H3">
-        <v>1.287223</v>
+        <v>0.180336</v>
       </c>
       <c r="I3">
-        <v>0.1093614795344676</v>
+        <v>0.02822008145728641</v>
       </c>
       <c r="J3">
-        <v>0.1093614795344676</v>
+        <v>0.02822008145728641</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q3">
-        <v>8.052391101539556</v>
+        <v>1.128115331754667</v>
       </c>
       <c r="R3">
-        <v>72.471519913856</v>
+        <v>10.153037985792</v>
       </c>
       <c r="S3">
-        <v>0.04040192803453356</v>
+        <v>0.01308940417897778</v>
       </c>
       <c r="T3">
-        <v>0.04040192803453355</v>
+        <v>0.01308940417897778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4290743333333333</v>
+        <v>0.060112</v>
       </c>
       <c r="H4">
-        <v>1.287223</v>
+        <v>0.180336</v>
       </c>
       <c r="I4">
-        <v>0.1093614795344676</v>
+        <v>0.02822008145728641</v>
       </c>
       <c r="J4">
-        <v>0.1093614795344676</v>
+        <v>0.02822008145728641</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N4">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q4">
-        <v>9.965313178370666</v>
+        <v>1.207900586741333</v>
       </c>
       <c r="R4">
-        <v>89.68781860533599</v>
+        <v>10.871105280672</v>
       </c>
       <c r="S4">
-        <v>0.04999979022344594</v>
+        <v>0.01401514414602433</v>
       </c>
       <c r="T4">
-        <v>0.04999979022344593</v>
+        <v>0.01401514414602434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.576338</v>
       </c>
       <c r="I5">
-        <v>0.3888021691111845</v>
+        <v>0.716133390648984</v>
       </c>
       <c r="J5">
-        <v>0.3888021691111845</v>
+        <v>0.716133390648984</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N5">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O5">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P5">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q5">
-        <v>13.434451394364</v>
+        <v>2.439786128832</v>
       </c>
       <c r="R5">
-        <v>120.910062549276</v>
+        <v>21.958075159488</v>
       </c>
       <c r="S5">
-        <v>0.067405784390522</v>
+        <v>0.0283085832198322</v>
       </c>
       <c r="T5">
-        <v>0.067405784390522</v>
+        <v>0.0283085832198322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.576338</v>
       </c>
       <c r="I6">
-        <v>0.3888021691111845</v>
+        <v>0.716133390648984</v>
       </c>
       <c r="J6">
-        <v>0.3888021691111845</v>
+        <v>0.716133390648984</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q6">
         <v>28.627878299904</v>
@@ -818,10 +818,10 @@
         <v>257.650904699136</v>
       </c>
       <c r="S6">
-        <v>0.1436370221303544</v>
+        <v>0.3321662770695524</v>
       </c>
       <c r="T6">
-        <v>0.1436370221303544</v>
+        <v>0.3321662770695524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.576338</v>
       </c>
       <c r="I7">
-        <v>0.3888021691111845</v>
+        <v>0.716133390648984</v>
       </c>
       <c r="J7">
-        <v>0.3888021691111845</v>
+        <v>0.716133390648984</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N7">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q7">
-        <v>35.428703014224</v>
+        <v>30.652567181964</v>
       </c>
       <c r="R7">
-        <v>318.858327128016</v>
+        <v>275.873104637676</v>
       </c>
       <c r="S7">
-        <v>0.1777593625903081</v>
+        <v>0.3556585303595993</v>
       </c>
       <c r="T7">
-        <v>0.1777593625903081</v>
+        <v>0.3556585303595993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.96893</v>
+        <v>0.5445563333333333</v>
       </c>
       <c r="H8">
-        <v>5.906790000000001</v>
+        <v>1.633669</v>
       </c>
       <c r="I8">
-        <v>0.501836351354348</v>
+        <v>0.2556465278937297</v>
       </c>
       <c r="J8">
-        <v>0.5018363513543479</v>
+        <v>0.2556465278937297</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N8">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O8">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P8">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q8">
-        <v>17.34017092962</v>
+        <v>0.8709590430826666</v>
       </c>
       <c r="R8">
-        <v>156.06153836658</v>
+        <v>7.838631387744</v>
       </c>
       <c r="S8">
-        <v>0.08700227412837329</v>
+        <v>0.01010564666337147</v>
       </c>
       <c r="T8">
-        <v>0.08700227412837329</v>
+        <v>0.01010564666337147</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.96893</v>
+        <v>0.5445563333333333</v>
       </c>
       <c r="H9">
-        <v>5.906790000000001</v>
+        <v>1.633669</v>
       </c>
       <c r="I9">
-        <v>0.501836351354348</v>
+        <v>0.2556465278937297</v>
       </c>
       <c r="J9">
-        <v>0.5018363513543479</v>
+        <v>0.2556465278937297</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q9">
-        <v>36.95069404032001</v>
+        <v>10.21962916950756</v>
       </c>
       <c r="R9">
-        <v>332.5562463628801</v>
+        <v>91.97666252556802</v>
       </c>
       <c r="S9">
-        <v>0.1853957740772986</v>
+        <v>0.1185772881491574</v>
       </c>
       <c r="T9">
-        <v>0.1853957740772986</v>
+        <v>0.1185772881491574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.96893</v>
+        <v>0.5445563333333333</v>
       </c>
       <c r="H10">
-        <v>5.906790000000001</v>
+        <v>1.633669</v>
       </c>
       <c r="I10">
-        <v>0.501836351354348</v>
+        <v>0.2556465278937297</v>
       </c>
       <c r="J10">
-        <v>0.5018363513543479</v>
+        <v>0.2556465278937297</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N10">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q10">
-        <v>45.72868277592001</v>
+        <v>10.94240608442644</v>
       </c>
       <c r="R10">
-        <v>411.55814498328</v>
+        <v>98.48165475983799</v>
       </c>
       <c r="S10">
-        <v>0.2294383031486761</v>
+        <v>0.1269635930812008</v>
       </c>
       <c r="T10">
-        <v>0.2294383031486761</v>
+        <v>0.1269635930812008</v>
       </c>
     </row>
   </sheetData>
